--- a/data/istanbul_anadolu_duzeltilmis-2.xlsx
+++ b/data/istanbul_anadolu_duzeltilmis-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selimsidan/Desktop/grad_project/Route_Optimization_DSS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D319E70-FE38-994F-A9D5-E138C1DB649E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B26FE1B-47FC-D845-8F4E-12BC88E0F22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -999,8 +999,8 @@
       <c r="F21" t="s">
         <v>40</v>
       </c>
-      <c r="G21" t="s">
-        <v>40</v>
+      <c r="G21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/istanbul_anadolu_duzeltilmis-2.xlsx
+++ b/data/istanbul_anadolu_duzeltilmis-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selimsidan/Desktop/grad_project/Route_Optimization_DSS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B26FE1B-47FC-D845-8F4E-12BC88E0F22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FE4577-FF6D-D944-8178-4AE79B527A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,7 +839,7 @@
         <v>40</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -931,7 +931,7 @@
         <v>40</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
         <v>40</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">

--- a/data/istanbul_anadolu_duzeltilmis-2.xlsx
+++ b/data/istanbul_anadolu_duzeltilmis-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selimsidan/Desktop/grad_project/Route_Optimization_DSS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FE4577-FF6D-D944-8178-4AE79B527A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DDF07C-5EBB-2145-BF5F-F2F227675F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Loc10</t>
-  </si>
-  <si>
-    <t>Loc11</t>
   </si>
   <si>
     <t>Loc12</t>
@@ -527,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -558,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -575,13 +572,13 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -598,81 +595,99 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>40.946492333118158</v>
+      </c>
+      <c r="C4">
+        <v>29.278605890216621</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G4">
-        <v>1000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>40.946492333118158</v>
+        <v>41.155214529503723</v>
       </c>
       <c r="C5">
-        <v>29.278605890216621</v>
+        <v>29.07672244309753</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>41.155214529503723</v>
+        <v>40.981930878237392</v>
       </c>
       <c r="C6">
-        <v>29.07672244309753</v>
+        <v>29.17187920713377</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>40.981930878237392</v>
+        <v>41.048211927553588</v>
       </c>
       <c r="C7">
-        <v>29.17187920713377</v>
+        <v>29.17572352528979</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -683,22 +698,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>41.048211927553588</v>
+        <v>40.879308888272099</v>
       </c>
       <c r="C8">
-        <v>29.17572352528979</v>
+        <v>29.290427344239571</v>
       </c>
       <c r="D8">
         <v>1000</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -706,22 +721,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>40.879308888272099</v>
+        <v>41.090266197947713</v>
       </c>
       <c r="C9">
-        <v>29.290427344239571</v>
+        <v>29.121459199765429</v>
       </c>
       <c r="D9">
         <v>1000</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -729,47 +744,24 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>41.090266197947713</v>
+        <v>41.074666439505449</v>
       </c>
       <c r="C10">
-        <v>29.121459199765429</v>
+        <v>29.198531059680271</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>41.074666439505449</v>
-      </c>
-      <c r="C11">
-        <v>29.198531059680271</v>
-      </c>
-      <c r="D11">
-        <v>1000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11">
         <v>1000</v>
       </c>
     </row>
@@ -778,22 +770,22 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>40.879334229651349</v>
+        <v>41.161616882452819</v>
       </c>
       <c r="C12">
-        <v>29.122391514461039</v>
+        <v>29.25034870778865</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
       <c r="G12">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -801,22 +793,22 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>41.161616882452819</v>
+        <v>41.018627841607902</v>
       </c>
       <c r="C13">
-        <v>29.25034870778865</v>
+        <v>29.015406724263809</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -824,22 +816,22 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>41.018627841607902</v>
+        <v>41.149107296514387</v>
       </c>
       <c r="C14">
-        <v>29.015406724263809</v>
+        <v>29.184949702088609</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -847,19 +839,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>41.149107296514387</v>
+        <v>40.944464218095717</v>
       </c>
       <c r="C15">
-        <v>29.184949702088609</v>
+        <v>29.246728443678439</v>
       </c>
       <c r="D15">
         <v>1000</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>1000</v>
@@ -870,13 +862,13 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>40.944464218095717</v>
+        <v>41.075674535840413</v>
       </c>
       <c r="C16">
-        <v>29.246728443678439</v>
+        <v>29.10388138122396</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
@@ -885,7 +877,7 @@
         <v>39</v>
       </c>
       <c r="G16">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -893,22 +885,22 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>41.075674535840413</v>
+        <v>40.942059873096959</v>
       </c>
       <c r="C17">
-        <v>29.10388138122396</v>
+        <v>29.143864305045991</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -916,22 +908,22 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>40.942059873096959</v>
+        <v>41.016362415746379</v>
       </c>
       <c r="C18">
-        <v>29.143864305045991</v>
+        <v>29.141898058937119</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
         <v>37</v>
       </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
       <c r="G18">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -939,16 +931,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>41.016362415746379</v>
+        <v>41.125786041988498</v>
       </c>
       <c r="C19">
-        <v>29.141898058937119</v>
+        <v>29.117666252860229</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -962,13 +954,13 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>41.125786041988498</v>
+        <v>41.164113864431492</v>
       </c>
       <c r="C20">
-        <v>29.117666252860229</v>
+        <v>29.0327580602771</v>
       </c>
       <c r="D20">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
@@ -977,7 +969,7 @@
         <v>39</v>
       </c>
       <c r="G20">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -985,22 +977,22 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>41.164113864431492</v>
+        <v>41.007152338999063</v>
       </c>
       <c r="C21">
-        <v>29.0327580602771</v>
+        <v>29.149014564200009</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
       </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
       <c r="G21">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1008,16 +1000,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>41.007152338999063</v>
+        <v>41.065230793504</v>
       </c>
       <c r="C22">
-        <v>29.149014564200009</v>
+        <v>29.287849172877511</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
         <v>38</v>
@@ -1031,19 +1023,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>41.065230793504</v>
+        <v>41.184708083770332</v>
       </c>
       <c r="C23">
-        <v>29.287849172877511</v>
+        <v>29.05080239350929</v>
       </c>
       <c r="D23">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>1000</v>
@@ -1054,16 +1046,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>41.184708083770332</v>
+        <v>40.86657507149814</v>
       </c>
       <c r="C24">
-        <v>29.05080239350929</v>
+        <v>29.292582321816049</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -1077,19 +1069,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>40.86657507149814</v>
+        <v>41.018042509383143</v>
       </c>
       <c r="C25">
-        <v>29.292582321816049</v>
+        <v>29.090234698388041</v>
       </c>
       <c r="D25">
         <v>1000</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>1000</v>
@@ -1100,19 +1092,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>41.018042509383143</v>
+        <v>41.034819277759198</v>
       </c>
       <c r="C26">
-        <v>29.090234698388041</v>
+        <v>29.19298616249986</v>
       </c>
       <c r="D26">
         <v>1000</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>1000</v>
@@ -1123,19 +1115,19 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>41.034819277759198</v>
+        <v>41.126904022390143</v>
       </c>
       <c r="C27">
-        <v>29.19298616249986</v>
+        <v>29.098204958826152</v>
       </c>
       <c r="D27">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>1000</v>
@@ -1146,19 +1138,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>41.126904022390143</v>
+        <v>41.164152585024269</v>
       </c>
       <c r="C28">
-        <v>29.098204958826152</v>
+        <v>29.228321238467299</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>1000</v>
@@ -1169,19 +1161,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>41.164152585024269</v>
+        <v>41.199026431985963</v>
       </c>
       <c r="C29">
-        <v>29.228321238467299</v>
+        <v>29.289454610018382</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
         <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>40</v>
       </c>
       <c r="G29">
         <v>1000</v>
@@ -1192,44 +1184,21 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>41.199026431985963</v>
+        <v>41.061780221915193</v>
       </c>
       <c r="C30">
-        <v>29.289454610018382</v>
+        <v>29.228565927269461</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
       </c>
       <c r="G30">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>41.061780221915193</v>
-      </c>
-      <c r="C31">
-        <v>29.228565927269461</v>
-      </c>
-      <c r="D31">
-        <v>1000</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31">
         <v>1000</v>
       </c>
     </row>

--- a/data/istanbul_anadolu_duzeltilmis-2.xlsx
+++ b/data/istanbul_anadolu_duzeltilmis-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selimsidan/Desktop/grad_project/Route_Optimization_DSS/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selimsidan/Desktop/grad_project/dss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DDF07C-5EBB-2145-BF5F-F2F227675F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21D9AB6-3A5A-C448-9D3F-D8DEDE06909C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>customer_cost</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,7 +538,7 @@
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +560,11 @@
       <c r="G1" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -578,10 +584,13 @@
         <v>38</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -592,7 +601,7 @@
         <v>29.064574315775442</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -601,10 +610,13 @@
         <v>38</v>
       </c>
       <c r="G3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -624,10 +636,13 @@
         <v>39</v>
       </c>
       <c r="G4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -647,10 +662,13 @@
         <v>39</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -670,10 +688,13 @@
         <v>37</v>
       </c>
       <c r="G6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -684,7 +705,7 @@
         <v>29.17572352528979</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -693,10 +714,13 @@
         <v>38</v>
       </c>
       <c r="G7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -707,7 +731,7 @@
         <v>29.290427344239571</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -716,10 +740,13 @@
         <v>38</v>
       </c>
       <c r="G8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -730,7 +757,7 @@
         <v>29.121459199765429</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -739,10 +766,13 @@
         <v>38</v>
       </c>
       <c r="G9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -753,7 +783,7 @@
         <v>29.198531059680271</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
@@ -762,10 +792,21 @@
         <v>38</v>
       </c>
       <c r="G10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -785,10 +826,13 @@
         <v>37</v>
       </c>
       <c r="G12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -810,8 +854,11 @@
       <c r="G13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -822,7 +869,7 @@
         <v>29.184949702088609</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
@@ -831,10 +878,13 @@
         <v>38</v>
       </c>
       <c r="G14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -845,7 +895,7 @@
         <v>29.246728443678439</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -854,10 +904,13 @@
         <v>38</v>
       </c>
       <c r="G15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -877,10 +930,13 @@
         <v>39</v>
       </c>
       <c r="G16">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -902,8 +958,11 @@
       <c r="G17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -923,10 +982,13 @@
         <v>37</v>
       </c>
       <c r="G18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -937,7 +999,7 @@
         <v>29.117666252860229</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -946,10 +1008,13 @@
         <v>38</v>
       </c>
       <c r="G19">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -971,8 +1036,11 @@
       <c r="G20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -992,10 +1060,13 @@
         <v>37</v>
       </c>
       <c r="G21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1006,7 +1077,7 @@
         <v>29.287849172877511</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>35</v>
@@ -1015,10 +1086,13 @@
         <v>38</v>
       </c>
       <c r="G22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1038,10 +1112,13 @@
         <v>37</v>
       </c>
       <c r="G23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1052,7 +1129,7 @@
         <v>29.292582321816049</v>
       </c>
       <c r="D24">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
@@ -1061,10 +1138,13 @@
         <v>38</v>
       </c>
       <c r="G24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1075,7 +1155,7 @@
         <v>29.090234698388041</v>
       </c>
       <c r="D25">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
@@ -1084,10 +1164,13 @@
         <v>38</v>
       </c>
       <c r="G25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1098,7 +1181,7 @@
         <v>29.19298616249986</v>
       </c>
       <c r="D26">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
         <v>35</v>
@@ -1107,10 +1190,13 @@
         <v>38</v>
       </c>
       <c r="G26">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1130,10 +1216,13 @@
         <v>37</v>
       </c>
       <c r="G27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1153,10 +1242,13 @@
         <v>39</v>
       </c>
       <c r="G28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1176,10 +1268,13 @@
         <v>37</v>
       </c>
       <c r="G29">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1190,7 +1285,7 @@
         <v>29.228565927269461</v>
       </c>
       <c r="D30">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
         <v>35</v>
@@ -1199,7 +1294,10 @@
         <v>38</v>
       </c>
       <c r="G30">
-        <v>1000</v>
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
